--- a/simulacion_META.xlsx
+++ b/simulacion_META.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>734.655029296875</v>
+      </c>
+      <c r="C2" t="n">
         <v>732.3300170898438</v>
       </c>
-      <c r="C2" t="n">
-        <v>167.2979915695073</v>
-      </c>
       <c r="D2" t="n">
-        <v>165.7115503949723</v>
+        <v>754.0988621238771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>735.5700073242188</v>
+      </c>
+      <c r="C3" t="n">
         <v>734.655029296875</v>
       </c>
-      <c r="C3" t="n">
-        <v>739.1119937518081</v>
-      </c>
       <c r="D3" t="n">
-        <v>730.3889542806401</v>
+        <v>727.9365735283826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>733.77001953125</v>
+      </c>
+      <c r="C4" t="n">
         <v>735.5700073242188</v>
       </c>
-      <c r="C4" t="n">
-        <v>721.7773594061887</v>
-      </c>
       <c r="D4" t="n">
-        <v>750.53794222647</v>
+        <v>727.8367495576558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>734.6599731445312</v>
+      </c>
+      <c r="C5" t="n">
         <v>733.77001953125</v>
       </c>
-      <c r="C5" t="n">
-        <v>728.812295101295</v>
-      </c>
       <c r="D5" t="n">
-        <v>750.8716435706851</v>
+        <v>733.6955798501714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>735.4600219726562</v>
+      </c>
+      <c r="C6" t="n">
         <v>734.6599731445312</v>
       </c>
-      <c r="C6" t="n">
-        <v>729.8042132925598</v>
-      </c>
       <c r="D6" t="n">
-        <v>739.1916739576154</v>
+        <v>751.2914037711657</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>732.7999877929688</v>
+      </c>
+      <c r="C7" t="n">
         <v>735.4600219726562</v>
       </c>
-      <c r="C7" t="n">
-        <v>750.9496371570067</v>
-      </c>
       <c r="D7" t="n">
-        <v>728.9024024408175</v>
+        <v>743.311625095133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>720.75</v>
+      </c>
+      <c r="C8" t="n">
         <v>732.7999877929688</v>
       </c>
-      <c r="C8" t="n">
-        <v>748.7393084246714</v>
-      </c>
       <c r="D8" t="n">
-        <v>720.2942068436678</v>
+        <v>766.2710048749345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>726.9299926757812</v>
+      </c>
+      <c r="C9" t="n">
         <v>720.75</v>
       </c>
-      <c r="C9" t="n">
-        <v>720.5373146038169</v>
-      </c>
       <c r="D9" t="n">
-        <v>752.0445592027904</v>
+        <v>711.126822243416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>725.964599609375</v>
+      </c>
+      <c r="C10" t="n">
         <v>726.9299926757812</v>
       </c>
-      <c r="C10" t="n">
-        <v>707.0495861050931</v>
-      </c>
       <c r="D10" t="n">
-        <v>719.7458227542561</v>
+        <v>740.8774109639767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>725.534423828125</v>
+      </c>
+      <c r="C11" t="n">
         <v>725.964599609375</v>
       </c>
-      <c r="C11" t="n">
-        <v>726.0472313401258</v>
-      </c>
       <c r="D11" t="n">
-        <v>736.1733318896136</v>
+        <v>723.7343102242723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>724.77001953125</v>
+      </c>
+      <c r="C12" t="n">
         <v>725.534423828125</v>
       </c>
-      <c r="C12" t="n">
-        <v>726.1614097774328</v>
-      </c>
       <c r="D12" t="n">
-        <v>719.2640425144725</v>
+        <v>731.8662334862676</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>726.4349975585938</v>
+      </c>
+      <c r="C13" t="n">
         <v>724.77001953125</v>
       </c>
-      <c r="C13" t="n">
-        <v>710.4869777803882</v>
-      </c>
       <c r="D13" t="n">
-        <v>712.6882482208305</v>
+        <v>724.101005261868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>727.4600219726562</v>
+      </c>
+      <c r="C14" t="n">
         <v>726.4349975585938</v>
       </c>
-      <c r="C14" t="n">
-        <v>731.7651960454026</v>
-      </c>
       <c r="D14" t="n">
-        <v>705.0312927138418</v>
+        <v>731.8377511133006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>716.6199951171875</v>
+      </c>
+      <c r="C15" t="n">
         <v>727.4600219726562</v>
       </c>
-      <c r="C15" t="n">
-        <v>706.8651781058807</v>
-      </c>
       <c r="D15" t="n">
-        <v>740.2815135328615</v>
+        <v>710.7900175527629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>716.260009765625</v>
+      </c>
+      <c r="C16" t="n">
         <v>716.6199951171875</v>
       </c>
-      <c r="C16" t="n">
-        <v>730.4936827240199</v>
-      </c>
       <c r="D16" t="n">
-        <v>725.9377309623687</v>
+        <v>729.2941470104502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>720.844970703125</v>
+      </c>
+      <c r="C17" t="n">
         <v>716.260009765625</v>
       </c>
-      <c r="C17" t="n">
-        <v>717.206338788282</v>
-      </c>
       <c r="D17" t="n">
-        <v>723.8980075637814</v>
+        <v>713.4643681845046</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>721.1199951171875</v>
+      </c>
+      <c r="C18" t="n">
         <v>720.844970703125</v>
       </c>
-      <c r="C18" t="n">
-        <v>721.0936001721166</v>
-      </c>
       <c r="D18" t="n">
-        <v>735.5866744869581</v>
+        <v>728.0947516097694</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>718.4299926757812</v>
+      </c>
+      <c r="C19" t="n">
         <v>721.1199951171875</v>
       </c>
-      <c r="C19" t="n">
-        <v>702.9237250495416</v>
-      </c>
       <c r="D19" t="n">
-        <v>738.1437306063349</v>
+        <v>704.1389065990986</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>718.6699829101562</v>
+      </c>
+      <c r="C20" t="n">
         <v>718.4299926757812</v>
       </c>
-      <c r="C20" t="n">
-        <v>700.8978443644298</v>
-      </c>
       <c r="D20" t="n">
-        <v>735.3452419680305</v>
+        <v>705.8638752329025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
+        <v>717.6099853515625</v>
+      </c>
+      <c r="C21" t="n">
         <v>718.6699829101562</v>
       </c>
-      <c r="C21" t="n">
-        <v>728.9041024198723</v>
-      </c>
       <c r="D21" t="n">
-        <v>714.0368282896796</v>
+        <v>731.6788789652728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>720.1599731445312</v>
+      </c>
+      <c r="C22" t="n">
         <v>717.6099853515625</v>
       </c>
-      <c r="C22" t="n">
-        <v>701.7946379411731</v>
-      </c>
       <c r="D22" t="n">
-        <v>744.9944447056048</v>
+        <v>741.4714494469744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>726.5349731445312</v>
+      </c>
+      <c r="C23" t="n">
         <v>720.1599731445312</v>
       </c>
-      <c r="C23" t="n">
-        <v>724.5739123296264</v>
-      </c>
       <c r="D23" t="n">
-        <v>718.5656120923393</v>
+        <v>742.2464233412775</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>724.7462158203125</v>
+      </c>
+      <c r="C24" t="n">
         <v>726.5349731445312</v>
       </c>
-      <c r="C24" t="n">
-        <v>711.6426312163463</v>
-      </c>
       <c r="D24" t="n">
-        <v>744.4988123315204</v>
+        <v>706.130796701729</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>724.6400146484375</v>
+      </c>
+      <c r="C25" t="n">
         <v>724.7462158203125</v>
       </c>
-      <c r="C25" t="n">
-        <v>731.4797982418825</v>
-      </c>
       <c r="D25" t="n">
-        <v>736.954800924153</v>
+        <v>727.2693403715485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>724.3115234375</v>
+      </c>
+      <c r="C26" t="n">
         <v>724.6400146484375</v>
       </c>
-      <c r="C26" t="n">
-        <v>740.3730613340399</v>
-      </c>
       <c r="D26" t="n">
-        <v>716.3255451138675</v>
+        <v>736.2447130184991</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>721.1199951171875</v>
+      </c>
+      <c r="C27" t="n">
         <v>724.3115234375</v>
       </c>
-      <c r="C27" t="n">
-        <v>719.9055558984201</v>
-      </c>
       <c r="D27" t="n">
-        <v>718.3491998404306</v>
+        <v>740.2331053887306</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>720.8599853515625</v>
+      </c>
+      <c r="C28" t="n">
         <v>721.1199951171875</v>
       </c>
-      <c r="C28" t="n">
-        <v>724.3377043842913</v>
-      </c>
       <c r="D28" t="n">
-        <v>740.9059673743307</v>
+        <v>697.835513657257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>716.3099975585938</v>
+      </c>
+      <c r="C29" t="n">
         <v>720.8599853515625</v>
       </c>
-      <c r="C29" t="n">
-        <v>719.0958348377778</v>
-      </c>
       <c r="D29" t="n">
-        <v>732.5240776276052</v>
+        <v>701.8181185634182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>718</v>
+      </c>
+      <c r="C30" t="n">
         <v>716.3099975585938</v>
       </c>
-      <c r="C30" t="n">
-        <v>727.9888057528633</v>
-      </c>
       <c r="D30" t="n">
-        <v>728.3594692457242</v>
+        <v>723.4316443202579</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>718.6420288085938</v>
+      </c>
+      <c r="C31" t="n">
         <v>718</v>
       </c>
-      <c r="C31" t="n">
-        <v>715.7341523527964</v>
-      </c>
       <c r="D31" t="n">
-        <v>718.353338502717</v>
+        <v>702.317226393766</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>715.2000122070312</v>
+      </c>
+      <c r="C32" t="n">
         <v>718.6420288085938</v>
       </c>
-      <c r="C32" t="n">
-        <v>724.370945512813</v>
-      </c>
       <c r="D32" t="n">
-        <v>718.9738007886513</v>
+        <v>721.6436598057328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>716.5399780273438</v>
+      </c>
+      <c r="C33" t="n">
         <v>715.2000122070312</v>
       </c>
-      <c r="C33" t="n">
-        <v>715.7831556470834</v>
-      </c>
       <c r="D33" t="n">
-        <v>729.2752522768538</v>
+        <v>724.1524305118799</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>713.1500244140625</v>
+      </c>
+      <c r="C34" t="n">
         <v>716.5399780273438</v>
       </c>
-      <c r="C34" t="n">
-        <v>701.0177472851531</v>
-      </c>
       <c r="D34" t="n">
-        <v>720.2788790461192</v>
+        <v>728.1056842747284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>710.1599731445312</v>
+      </c>
+      <c r="C35" t="n">
         <v>713.1500244140625</v>
       </c>
-      <c r="C35" t="n">
-        <v>707.4311368111369</v>
-      </c>
       <c r="D35" t="n">
-        <v>733.4670944703641</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>710.1599731445312</v>
-      </c>
-      <c r="C36" t="n">
-        <v>706.2554681397144</v>
-      </c>
-      <c r="D36" t="n">
-        <v>738.8683696202122</v>
+        <v>747.0030100794801</v>
       </c>
     </row>
   </sheetData>
